--- a/PREP REQ v2- TEMPLATE.xlsx
+++ b/PREP REQ v2- TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C15FB5D-F8D0-C649-A90D-C65C286A0FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B34B0-6820-AF42-A011-F02355D29A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
@@ -205,12 +205,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -225,6 +219,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +447,7 @@
   <dimension ref="A1:V987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -461,14 +461,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -487,22 +487,22 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3"/>
@@ -526,9 +526,9 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -550,9 +550,9 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -574,9 +574,9 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -643,12 +643,12 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -670,9 +670,9 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -694,9 +694,9 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -718,9 +718,9 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1459,12 +1459,12 @@
       <c r="V41" s="3"/>
     </row>
     <row r="42" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1483,12 +1483,12 @@
       <c r="V42" s="3"/>
     </row>
     <row r="43" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -1507,12 +1507,12 @@
       <c r="V43" s="3"/>
     </row>
     <row r="44" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -1531,12 +1531,12 @@
       <c r="V44" s="3"/>
     </row>
     <row r="45" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -1555,12 +1555,12 @@
       <c r="V45" s="3"/>
     </row>
     <row r="46" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -1579,12 +1579,12 @@
       <c r="V46" s="3"/>
     </row>
     <row r="47" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -1603,12 +1603,12 @@
       <c r="V47" s="3"/>
     </row>
     <row r="48" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -1627,12 +1627,12 @@
       <c r="V48" s="3"/>
     </row>
     <row r="49" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -1651,172 +1651,172 @@
       <c r="V49" s="3"/>
     </row>
     <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
